--- a/others/51MCU/51MCU-CMD.xlsx
+++ b/others/51MCU/51MCU-CMD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13200"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>助记符</t>
   </si>
@@ -761,9 +761,6 @@
   </si>
   <si>
     <t>指本条指令的起始位置</t>
-  </si>
-  <si>
-    <t>分类: 单片机</t>
   </si>
 </sst>
 </file>
@@ -771,10 +768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -795,12 +792,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -822,7 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,39 +922,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -953,11 +950,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -971,20 +968,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,26 +1001,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1377,8 +1389,8 @@
   <sheetPr/>
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1386,10 +1398,10 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,522 +1415,523 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="15" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="15" spans="1:6">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="15" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="15" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" ht="15" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" ht="15" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" ht="15" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" ht="15" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="29.25" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" ht="15" spans="1:6">
+      <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="29.25" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" ht="15" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" ht="15" spans="1:6">
+      <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" ht="15" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="29.25" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:6">
       <c r="A31" s="10" t="s">
@@ -1948,9 +1961,9 @@
       <c r="E32" s="14">
         <v>1</v>
       </c>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" ht="15" spans="1:6">
       <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
@@ -1966,9 +1979,9 @@
       <c r="E33" s="14">
         <v>1</v>
       </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
       <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
@@ -1984,9 +1997,9 @@
       <c r="E34" s="14">
         <v>1</v>
       </c>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" ht="15" spans="1:6">
       <c r="A35" s="14" t="s">
         <v>61</v>
       </c>
@@ -2002,9 +2015,9 @@
       <c r="E35" s="14">
         <v>1</v>
       </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" ht="15" spans="1:6">
       <c r="A36" s="14" t="s">
         <v>61</v>
       </c>
@@ -2020,9 +2033,9 @@
       <c r="E36" s="14">
         <v>2</v>
       </c>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" ht="15" spans="1:6">
       <c r="A37" s="14" t="s">
         <v>71</v>
       </c>
@@ -2038,9 +2051,9 @@
       <c r="E37" s="14">
         <v>1</v>
       </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" ht="15" spans="1:6">
       <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
@@ -2056,9 +2069,9 @@
       <c r="E38" s="14">
         <v>1</v>
       </c>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" ht="15" spans="1:6">
       <c r="A39" s="14" t="s">
         <v>71</v>
       </c>
@@ -2074,9 +2087,9 @@
       <c r="E39" s="14">
         <v>2</v>
       </c>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" ht="15" spans="1:6">
       <c r="A40" s="14" t="s">
         <v>71</v>
       </c>
@@ -2092,9 +2105,9 @@
       <c r="E40" s="14">
         <v>1</v>
       </c>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" ht="15" spans="1:6">
       <c r="A41" s="14" t="s">
         <v>76</v>
       </c>
@@ -2110,9 +2123,9 @@
       <c r="E41" s="14">
         <v>4</v>
       </c>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" ht="15" spans="1:6">
       <c r="A42" s="14" t="s">
         <v>79</v>
       </c>
@@ -2128,9 +2141,9 @@
       <c r="E42" s="14">
         <v>4</v>
       </c>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" ht="15" spans="1:6">
       <c r="A43" s="14" t="s">
         <v>81</v>
       </c>
@@ -2146,9 +2159,9 @@
       <c r="E43" s="14">
         <v>1</v>
       </c>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" ht="15" spans="1:6">
       <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
@@ -2164,9 +2177,9 @@
       <c r="E44" s="14">
         <v>1</v>
       </c>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" ht="15" spans="1:6">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -2182,9 +2195,9 @@
       <c r="E45" s="14">
         <v>1</v>
       </c>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" ht="15" spans="1:6">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2200,9 +2213,9 @@
       <c r="E46" s="14">
         <v>1</v>
       </c>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" ht="15" spans="1:6">
       <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
@@ -2218,9 +2231,9 @@
       <c r="E47" s="14">
         <v>1</v>
       </c>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" ht="15" spans="1:6">
       <c r="A48" s="14" t="s">
         <v>91</v>
       </c>
@@ -2236,7 +2249,7 @@
       <c r="E48" s="14">
         <v>1</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" ht="29.25" spans="1:6">
       <c r="A49" s="14" t="s">
@@ -2254,7 +2267,7 @@
       <c r="E49" s="14">
         <v>1</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" ht="29.25" spans="1:6">
       <c r="A50" s="14" t="s">
@@ -2272,9 +2285,9 @@
       <c r="E50" s="14">
         <v>1</v>
       </c>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" ht="15" spans="1:6">
       <c r="A51" s="14" t="s">
         <v>91</v>
       </c>
@@ -2290,9 +2303,9 @@
       <c r="E51" s="14">
         <v>1</v>
       </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" ht="15" spans="1:6">
       <c r="A52" s="14" t="s">
         <v>96</v>
       </c>
@@ -2308,9 +2321,9 @@
       <c r="E52" s="14">
         <v>1</v>
       </c>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" ht="15" spans="1:6">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -2326,9 +2339,9 @@
       <c r="E53" s="14">
         <v>1</v>
       </c>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" ht="15" spans="1:6">
       <c r="A54" s="14" t="s">
         <v>96</v>
       </c>
@@ -2344,7 +2357,7 @@
       <c r="E54" s="14">
         <v>1</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" ht="15" spans="1:6">
       <c r="A55" s="14" t="s">
@@ -2362,1193 +2375,1193 @@
       <c r="E55" s="14">
         <v>1</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:6">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="20">
-        <v>1</v>
-      </c>
-      <c r="E57" s="20">
-        <v>1</v>
-      </c>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="20" t="s">
+      <c r="D57" s="19">
+        <v>1</v>
+      </c>
+      <c r="E57" s="19">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" ht="15" spans="1:6">
+      <c r="A58" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="20">
-        <v>2</v>
-      </c>
-      <c r="E58" s="20">
-        <v>1</v>
-      </c>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="20" t="s">
+      <c r="D58" s="19">
+        <v>2</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" ht="15" spans="1:6">
+      <c r="A59" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="20">
-        <v>1</v>
-      </c>
-      <c r="E59" s="20">
-        <v>1</v>
-      </c>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="20" t="s">
+      <c r="D59" s="19">
+        <v>1</v>
+      </c>
+      <c r="E59" s="19">
+        <v>1</v>
+      </c>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" ht="15" spans="1:6">
+      <c r="A60" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="20">
-        <v>2</v>
-      </c>
-      <c r="E60" s="20">
-        <v>1</v>
-      </c>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="20" t="s">
+      <c r="D60" s="19">
+        <v>2</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1</v>
+      </c>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" ht="15" spans="1:6">
+      <c r="A61" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="20">
-        <v>2</v>
-      </c>
-      <c r="E61" s="20">
-        <v>1</v>
-      </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="20" t="s">
+      <c r="D61" s="19">
+        <v>2</v>
+      </c>
+      <c r="E61" s="19">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" ht="15" spans="1:6">
+      <c r="A62" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>3</v>
       </c>
-      <c r="E62" s="20">
-        <v>2</v>
-      </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="20" t="s">
+      <c r="E62" s="19">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" ht="15" spans="1:6">
+      <c r="A63" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="20">
-        <v>1</v>
-      </c>
-      <c r="E63" s="20">
-        <v>2</v>
-      </c>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="20" t="s">
+      <c r="D63" s="19">
+        <v>1</v>
+      </c>
+      <c r="E63" s="19">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" ht="15" spans="1:6">
+      <c r="A64" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="20">
-        <v>2</v>
-      </c>
-      <c r="E64" s="20">
-        <v>1</v>
-      </c>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="20" t="s">
+      <c r="D64" s="19">
+        <v>2</v>
+      </c>
+      <c r="E64" s="19">
+        <v>1</v>
+      </c>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" ht="15" spans="1:6">
+      <c r="A65" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="20">
-        <v>1</v>
-      </c>
-      <c r="E65" s="20">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="20" t="s">
+      <c r="D65" s="19">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19">
+        <v>1</v>
+      </c>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" ht="15" spans="1:6">
+      <c r="A66" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="20">
-        <v>2</v>
-      </c>
-      <c r="E66" s="20">
-        <v>1</v>
-      </c>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="20" t="s">
+      <c r="D66" s="19">
+        <v>2</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1</v>
+      </c>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" ht="15" spans="1:6">
+      <c r="A67" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="20">
-        <v>2</v>
-      </c>
-      <c r="E67" s="20">
-        <v>1</v>
-      </c>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="20" t="s">
+      <c r="D67" s="19">
+        <v>2</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1</v>
+      </c>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" ht="15" spans="1:6">
+      <c r="A68" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>3</v>
       </c>
-      <c r="E68" s="20">
-        <v>1</v>
-      </c>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="20" t="s">
+      <c r="E68" s="19">
+        <v>1</v>
+      </c>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" ht="15" spans="1:6">
+      <c r="A69" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="20">
-        <v>1</v>
-      </c>
-      <c r="E69" s="20">
-        <v>2</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="20" t="s">
+      <c r="D69" s="19">
+        <v>1</v>
+      </c>
+      <c r="E69" s="19">
+        <v>2</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" ht="15" spans="1:6">
+      <c r="A70" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="20">
-        <v>2</v>
-      </c>
-      <c r="E70" s="20">
-        <v>1</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="20" t="s">
+      <c r="D70" s="19">
+        <v>2</v>
+      </c>
+      <c r="E70" s="19">
+        <v>1</v>
+      </c>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" ht="15" spans="1:6">
+      <c r="A71" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="20">
-        <v>1</v>
-      </c>
-      <c r="E71" s="20">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="20" t="s">
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+      <c r="E71" s="19">
+        <v>1</v>
+      </c>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" ht="15" spans="1:6">
+      <c r="A72" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="20">
-        <v>2</v>
-      </c>
-      <c r="E72" s="20">
-        <v>1</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="20" t="s">
+      <c r="D72" s="19">
+        <v>2</v>
+      </c>
+      <c r="E72" s="19">
+        <v>1</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" ht="15" spans="1:6">
+      <c r="A73" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="20">
-        <v>2</v>
-      </c>
-      <c r="E73" s="20">
-        <v>1</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="20" t="s">
+      <c r="D73" s="19">
+        <v>2</v>
+      </c>
+      <c r="E73" s="19">
+        <v>1</v>
+      </c>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" ht="15" spans="1:6">
+      <c r="A74" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>3</v>
       </c>
-      <c r="E74" s="20">
-        <v>1</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="20" t="s">
+      <c r="E74" s="19">
+        <v>1</v>
+      </c>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" ht="15" spans="1:6">
+      <c r="A75" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="20">
-        <v>1</v>
-      </c>
-      <c r="E75" s="20">
-        <v>2</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="20" t="s">
+      <c r="D75" s="19">
+        <v>1</v>
+      </c>
+      <c r="E75" s="19">
+        <v>2</v>
+      </c>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" ht="15" spans="1:6">
+      <c r="A76" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="20">
-        <v>1</v>
-      </c>
-      <c r="E76" s="20">
-        <v>1</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="20" t="s">
+      <c r="D76" s="19">
+        <v>1</v>
+      </c>
+      <c r="E76" s="19">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" ht="15" spans="1:6">
+      <c r="A77" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="20">
-        <v>1</v>
-      </c>
-      <c r="E77" s="20">
-        <v>1</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="20" t="s">
+      <c r="D77" s="19">
+        <v>1</v>
+      </c>
+      <c r="E77" s="19">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" ht="15" spans="1:6">
+      <c r="A78" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="20">
-        <v>1</v>
-      </c>
-      <c r="E78" s="20">
-        <v>1</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="20" t="s">
+      <c r="D78" s="19">
+        <v>1</v>
+      </c>
+      <c r="E78" s="19">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" ht="15" spans="1:6">
+      <c r="A79" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="20">
-        <v>1</v>
-      </c>
-      <c r="E79" s="20">
-        <v>1</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="20" t="s">
+      <c r="D79" s="19">
+        <v>1</v>
+      </c>
+      <c r="E79" s="19">
+        <v>1</v>
+      </c>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" ht="15" spans="1:6">
+      <c r="A80" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="20">
-        <v>1</v>
-      </c>
-      <c r="E80" s="20">
-        <v>1</v>
-      </c>
-      <c r="F80" s="21"/>
+      <c r="D80" s="19">
+        <v>1</v>
+      </c>
+      <c r="E80" s="19">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" ht="15" spans="1:6">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="20">
-        <v>1</v>
-      </c>
-      <c r="E81" s="20">
-        <v>1</v>
-      </c>
-      <c r="F81" s="21"/>
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+      <c r="E81" s="19">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26" t="s">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:6">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="27">
-        <v>1</v>
-      </c>
-      <c r="E83" s="27">
-        <v>2</v>
-      </c>
-      <c r="F83" s="28"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+      <c r="E83" s="25">
+        <v>2</v>
+      </c>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" ht="15" spans="1:6">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="27">
-        <v>2</v>
-      </c>
-      <c r="E84" s="27">
-        <v>2</v>
-      </c>
-      <c r="F84" s="28"/>
+      <c r="D84" s="25">
+        <v>2</v>
+      </c>
+      <c r="E84" s="25">
+        <v>2</v>
+      </c>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" ht="15" spans="1:6">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="27">
-        <v>2</v>
-      </c>
-      <c r="E85" s="27">
-        <v>2</v>
-      </c>
-      <c r="F85" s="28"/>
+      <c r="D85" s="25">
+        <v>2</v>
+      </c>
+      <c r="E85" s="25">
+        <v>2</v>
+      </c>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" ht="29.25" spans="1:6">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="25">
         <v>3</v>
       </c>
-      <c r="E86" s="27">
-        <v>2</v>
-      </c>
-      <c r="F86" s="28"/>
+      <c r="E86" s="25">
+        <v>2</v>
+      </c>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" ht="29.25" spans="1:6">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="25">
         <v>3</v>
       </c>
-      <c r="E87" s="27">
-        <v>2</v>
-      </c>
-      <c r="F87" s="28"/>
+      <c r="E87" s="25">
+        <v>2</v>
+      </c>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" ht="29.25" spans="1:6">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="27">
-        <v>2</v>
-      </c>
-      <c r="E88" s="27">
-        <v>2</v>
-      </c>
-      <c r="F88" s="28"/>
+      <c r="D88" s="25">
+        <v>2</v>
+      </c>
+      <c r="E88" s="25">
+        <v>2</v>
+      </c>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" ht="29.25" spans="1:6">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="25">
         <v>3</v>
       </c>
-      <c r="E89" s="27">
-        <v>2</v>
-      </c>
-      <c r="F89" s="28"/>
+      <c r="E89" s="25">
+        <v>2</v>
+      </c>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" ht="15" spans="1:6">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="25">
         <v>3</v>
       </c>
-      <c r="E90" s="27">
-        <v>2</v>
-      </c>
-      <c r="F90" s="28"/>
+      <c r="E90" s="25">
+        <v>2</v>
+      </c>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" ht="15" spans="1:6">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="25">
         <v>3</v>
       </c>
-      <c r="E91" s="27">
-        <v>2</v>
-      </c>
-      <c r="F91" s="28"/>
+      <c r="E91" s="25">
+        <v>2</v>
+      </c>
+      <c r="F91" s="24"/>
     </row>
     <row r="92" ht="15" spans="1:6">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="23"/>
+      <c r="C92" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D92" s="27">
-        <v>1</v>
-      </c>
-      <c r="E92" s="27">
-        <v>1</v>
-      </c>
-      <c r="F92" s="28"/>
+      <c r="D92" s="25">
+        <v>1</v>
+      </c>
+      <c r="E92" s="25">
+        <v>1</v>
+      </c>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" ht="15" spans="1:6">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D93" s="27">
-        <v>2</v>
-      </c>
-      <c r="E93" s="27">
-        <v>2</v>
-      </c>
-      <c r="F93" s="28"/>
+      <c r="D93" s="25">
+        <v>2</v>
+      </c>
+      <c r="E93" s="25">
+        <v>2</v>
+      </c>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" ht="15" spans="1:6">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="25">
         <v>3</v>
       </c>
-      <c r="E94" s="27">
-        <v>2</v>
-      </c>
-      <c r="F94" s="28"/>
+      <c r="E94" s="25">
+        <v>2</v>
+      </c>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" ht="15" spans="1:6">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="27">
-        <v>1</v>
-      </c>
-      <c r="E95" s="27">
-        <v>2</v>
-      </c>
-      <c r="F95" s="28"/>
+      <c r="D95" s="25">
+        <v>1</v>
+      </c>
+      <c r="E95" s="25">
+        <v>2</v>
+      </c>
+      <c r="F95" s="24"/>
     </row>
     <row r="96" ht="15" spans="1:6">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="27">
-        <v>1</v>
-      </c>
-      <c r="E96" s="27">
-        <v>2</v>
-      </c>
-      <c r="F96" s="28"/>
+      <c r="D96" s="25">
+        <v>1</v>
+      </c>
+      <c r="E96" s="25">
+        <v>2</v>
+      </c>
+      <c r="F96" s="24"/>
     </row>
     <row r="97" ht="15" spans="1:6">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="27">
-        <v>2</v>
-      </c>
-      <c r="E97" s="27">
-        <v>2</v>
-      </c>
-      <c r="F97" s="28"/>
+      <c r="D97" s="25">
+        <v>2</v>
+      </c>
+      <c r="E97" s="25">
+        <v>2</v>
+      </c>
+      <c r="F97" s="24"/>
     </row>
     <row r="98" ht="15" spans="1:6">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98" s="25">
         <v>3</v>
       </c>
-      <c r="E98" s="27">
-        <v>2</v>
-      </c>
-      <c r="F98" s="28"/>
+      <c r="E98" s="25">
+        <v>2</v>
+      </c>
+      <c r="F98" s="24"/>
     </row>
     <row r="99" ht="15" spans="1:6">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="27">
-        <v>2</v>
-      </c>
-      <c r="E99" s="27">
-        <v>2</v>
-      </c>
-      <c r="F99" s="28"/>
+      <c r="D99" s="25">
+        <v>2</v>
+      </c>
+      <c r="E99" s="25">
+        <v>2</v>
+      </c>
+      <c r="F99" s="24"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" ht="15" spans="1:6">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="34">
-        <v>1</v>
-      </c>
-      <c r="E101" s="34">
-        <v>1</v>
-      </c>
-      <c r="F101" s="35"/>
+      <c r="D101" s="31">
+        <v>1</v>
+      </c>
+      <c r="E101" s="31">
+        <v>1</v>
+      </c>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" ht="15" spans="1:6">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="34">
-        <v>2</v>
-      </c>
-      <c r="E102" s="34">
-        <v>1</v>
-      </c>
-      <c r="F102" s="35"/>
+      <c r="D102" s="31">
+        <v>2</v>
+      </c>
+      <c r="E102" s="31">
+        <v>1</v>
+      </c>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" ht="15" spans="1:6">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="34">
-        <v>1</v>
-      </c>
-      <c r="E103" s="34">
-        <v>1</v>
-      </c>
-      <c r="F103" s="35"/>
+      <c r="D103" s="31">
+        <v>1</v>
+      </c>
+      <c r="E103" s="31">
+        <v>1</v>
+      </c>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" ht="15" spans="1:6">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D104" s="34">
-        <v>2</v>
-      </c>
-      <c r="E104" s="34">
-        <v>1</v>
-      </c>
-      <c r="F104" s="35"/>
+      <c r="D104" s="31">
+        <v>2</v>
+      </c>
+      <c r="E104" s="31">
+        <v>1</v>
+      </c>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" ht="15" spans="1:6">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D105" s="34">
-        <v>1</v>
-      </c>
-      <c r="E105" s="34">
-        <v>1</v>
-      </c>
-      <c r="F105" s="35"/>
+      <c r="D105" s="31">
+        <v>1</v>
+      </c>
+      <c r="E105" s="31">
+        <v>1</v>
+      </c>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" ht="15" spans="1:6">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="34">
-        <v>2</v>
-      </c>
-      <c r="E106" s="34">
-        <v>1</v>
-      </c>
-      <c r="F106" s="35"/>
+      <c r="D106" s="31">
+        <v>2</v>
+      </c>
+      <c r="E106" s="31">
+        <v>1</v>
+      </c>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" ht="15" spans="1:6">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="34">
-        <v>2</v>
-      </c>
-      <c r="E107" s="34">
-        <v>2</v>
-      </c>
-      <c r="F107" s="35"/>
+      <c r="D107" s="31">
+        <v>2</v>
+      </c>
+      <c r="E107" s="31">
+        <v>2</v>
+      </c>
+      <c r="F107" s="30"/>
     </row>
     <row r="108" ht="29.25" spans="1:6">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D108" s="34">
-        <v>2</v>
-      </c>
-      <c r="E108" s="34">
-        <v>2</v>
-      </c>
-      <c r="F108" s="35"/>
+      <c r="D108" s="31">
+        <v>2</v>
+      </c>
+      <c r="E108" s="31">
+        <v>2</v>
+      </c>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" ht="15" spans="1:6">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D109" s="34">
-        <v>2</v>
-      </c>
-      <c r="E109" s="34">
-        <v>2</v>
-      </c>
-      <c r="F109" s="35"/>
+      <c r="D109" s="31">
+        <v>2</v>
+      </c>
+      <c r="E109" s="31">
+        <v>2</v>
+      </c>
+      <c r="F109" s="30"/>
     </row>
     <row r="110" ht="29.25" spans="1:6">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D110" s="34">
-        <v>2</v>
-      </c>
-      <c r="E110" s="34">
-        <v>2</v>
-      </c>
-      <c r="F110" s="35"/>
+      <c r="D110" s="31">
+        <v>2</v>
+      </c>
+      <c r="E110" s="31">
+        <v>2</v>
+      </c>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" ht="15" spans="1:6">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D111" s="34">
-        <v>2</v>
-      </c>
-      <c r="E111" s="34">
-        <v>1</v>
-      </c>
-      <c r="F111" s="35"/>
+      <c r="D111" s="31">
+        <v>2</v>
+      </c>
+      <c r="E111" s="31">
+        <v>1</v>
+      </c>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" ht="15" spans="1:6">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D112" s="34">
-        <v>2</v>
-      </c>
-      <c r="E112" s="34">
-        <v>2</v>
-      </c>
-      <c r="F112" s="35"/>
+      <c r="D112" s="31">
+        <v>2</v>
+      </c>
+      <c r="E112" s="31">
+        <v>2</v>
+      </c>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" ht="15" spans="1:6">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="D113" s="34">
-        <v>2</v>
-      </c>
-      <c r="E113" s="34">
-        <v>2</v>
-      </c>
-      <c r="F113" s="35"/>
+      <c r="D113" s="31">
+        <v>2</v>
+      </c>
+      <c r="E113" s="31">
+        <v>2</v>
+      </c>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" ht="15" spans="1:6">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D114" s="34">
-        <v>2</v>
-      </c>
-      <c r="E114" s="34">
-        <v>2</v>
-      </c>
-      <c r="F114" s="35"/>
+      <c r="D114" s="31">
+        <v>2</v>
+      </c>
+      <c r="E114" s="31">
+        <v>2</v>
+      </c>
+      <c r="F114" s="30"/>
     </row>
     <row r="115" ht="15" spans="1:6">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D115" s="34">
+      <c r="D115" s="31">
         <v>3</v>
       </c>
-      <c r="E115" s="34">
-        <v>2</v>
-      </c>
-      <c r="F115" s="35"/>
+      <c r="E115" s="31">
+        <v>2</v>
+      </c>
+      <c r="F115" s="30"/>
     </row>
     <row r="116" ht="15" spans="1:6">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D116" s="34">
+      <c r="D116" s="31">
         <v>3</v>
       </c>
-      <c r="E116" s="34">
-        <v>2</v>
-      </c>
-      <c r="F116" s="35"/>
+      <c r="E116" s="31">
+        <v>2</v>
+      </c>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" ht="29.25" spans="1:6">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D117" s="34">
-        <v>2</v>
-      </c>
-      <c r="E117" s="34">
-        <v>2</v>
-      </c>
-      <c r="F117" s="35"/>
+      <c r="D117" s="31">
+        <v>2</v>
+      </c>
+      <c r="E117" s="31">
+        <v>2</v>
+      </c>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="36"/>
+      <c r="A118" s="32"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="36"/>
-    </row>
-    <row r="120" ht="15" spans="1:1">
-      <c r="A120" s="36"/>
+      <c r="A119" s="32"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="32"/>
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="35"/>
     </row>
     <row r="122" ht="29.25" spans="1:3">
-      <c r="A122" s="40" t="s">
+      <c r="A122" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C122" s="41"/>
-    </row>
-    <row r="123" ht="15" spans="1:3">
-      <c r="A123" s="40" t="s">
+      <c r="C122" s="37"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B123" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="41"/>
+      <c r="C123" s="37"/>
     </row>
     <row r="124" ht="29.25" spans="1:3">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C124" s="41"/>
+      <c r="C124" s="37"/>
     </row>
     <row r="125" ht="29.25" spans="1:3">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="41"/>
+      <c r="C125" s="37"/>
     </row>
     <row r="126" ht="29.25" spans="1:3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="41"/>
+      <c r="C126" s="37"/>
     </row>
     <row r="127" ht="29.25" spans="1:3">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="41"/>
+      <c r="C127" s="37"/>
     </row>
     <row r="128" ht="29.25" spans="1:3">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="41"/>
+      <c r="C128" s="37"/>
     </row>
     <row r="129" ht="29.25" spans="1:3">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="41"/>
-    </row>
-    <row r="130" ht="15" spans="1:1">
-      <c r="A130" s="36"/>
+      <c r="C129" s="37"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="32"/>
     </row>
     <row r="131" ht="29.25" customHeight="1" spans="1:2">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="38" t="s">
         <v>227</v>
       </c>
       <c r="B131" s="39"/>
@@ -3577,7 +3590,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="40" t="s">
         <v>232</v>
       </c>
@@ -3585,7 +3598,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="40" t="s">
         <v>234</v>
       </c>
@@ -3642,9 +3655,7 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="36" t="s">
-        <v>248</v>
-      </c>
+      <c r="A143" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3662,9 +3673,6 @@
     <mergeCell ref="F82:F99"/>
     <mergeCell ref="F100:F117"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A143" r:id="rId1" display="分类: 单片机" tooltip="https://www.cnblogs.com/lvdongjie/category/988714.html"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
